--- a/InputData/plcy-ctrl-ctr/BEPEfCT/Boolean Exempt Process Emissions from Carbon Tax.xlsx
+++ b/InputData/plcy-ctrl-ctr/BEPEfCT/Boolean Exempt Process Emissions from Carbon Tax.xlsx
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E0BE3B7-7D89-4C5C-8E26-4810410CE047}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36047C37-DE29-41BA-9989-C3820BE4351D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05416AFE-550D-4DA8-9166-0B88CD2D9318}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF2A581F-F33E-4ED9-BD5C-BC249EC2E252}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{808CCD62-5E79-4E4B-924E-0937BC494631}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADCA3DD2-3D75-4DC0-B512-86C6923820A3}"/>
 </file>